--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730931363091" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730945128767" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730945188763" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730945778763" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730946569088" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912196766684" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912240629163" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912240649302" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912241419215" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912242369218" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730931053026.csv</t>
+          <t>go_stims-16502912196356695.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873093120306.csv</t>
+          <t>GNG_stims-16502912196586702.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498730931223068.csv</t>
+          <t>go_stims-16502912196607845.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730931353068.csv</t>
+          <t>GNG_stims-16502912196746712.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873094262879.csv</t>
+          <t>OB-16502912214215589.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16498730938458762.csv</t>
+          <t>OB-1650291222011692.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16498730938009112.csv</t>
+          <t>ZB-match_7-16502912200905597.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873093565902.csv</t>
+          <t>TB-16502912231204398.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_4-164987309337888.csv</t>
+          <t>ZB-match_0-16502912199255717.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16498730936308854.csv</t>
+          <t>OB-16502912215319014.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1649873093693888.csv</t>
+          <t>TB-16502912223928804.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16498730944889123.csv</t>
+          <t>ZB-match_2-16502912199625661.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498730931963058.csv</t>
+          <t>TB-16502912240409203.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730945449104.csv</t>
+          <t>MM_stims-16502912240929244.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730945208774.csv</t>
+          <t>ZM_stims-16502912240679226.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873094560877.csv</t>
+          <t>MM_stims-16502912241249225.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873094545883.csv</t>
+          <t>ZM_stims-1650291224093934.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730945768757.csv</t>
+          <t>MM_stims-1650291224140919.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730945618777.csv</t>
+          <t>ZM_stims-16502912241269255.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730946088796.csv</t>
+          <t>vSAT_stims-16502912242219539.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873094579881.csv</t>
+          <t>vSAT_stims-1650291224188938.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730946409113.csv</t>
+          <t>SAT_stims-16502912241729183.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730945929112.csv</t>
+          <t>SAT_stims-1650291224146923.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912196766684" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912240629163" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912240649302" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912241419215" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912242369218" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778469596746" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778496806698" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778496816685" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778497456691" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778498086722" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912196356695.csv</t>
+          <t>go_stims-16504778469216685.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912196586702.csv</t>
+          <t>GNG_stims-16504778469426727.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912196607845.csv</t>
+          <t>go_stims-16504778469446692.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912196746712.csv</t>
+          <t>GNG_stims-16504778469586725.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912214215589.csv</t>
+          <t>OB-1650477847427706.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650291222011692.csv</t>
+          <t>OB-1650477848038706.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502912200905597.csv</t>
+          <t>ZB-match_2-16504778471686707.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16502912231204398.csv</t>
+          <t>OB-16504778477717052.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912199255717.csv</t>
+          <t>TB-1650477849663705.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16502912215319014.csv</t>
+          <t>ZB-match_1-16504778471396904.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912223928804.csv</t>
+          <t>TB-16504778493837047.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912199625661.csv</t>
+          <t>TB-16504778496246696.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912240409203.csv</t>
+          <t>ZB-match_0-1650477847344673.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912240929244.csv</t>
+          <t>MM_stims-1650477849712706.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912240679226.csv</t>
+          <t>ZM_stims-1650477849688667.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912241249225.csv</t>
+          <t>MM_stims-16504778497286701.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291224093934.csv</t>
+          <t>ZM_stims-16504778497136676.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650291224140919.csv</t>
+          <t>MM_stims-16504778497447064.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912241269255.csv</t>
+          <t>ZM_stims-16504778497296689.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912242219539.csv</t>
+          <t>vSAT_stims-1650477849792672.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650291224188938.csv</t>
+          <t>vSAT_stims-16504778497777128.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912241729183.csv</t>
+          <t>SAT_stims-16504778497607026.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291224146923.csv</t>
+          <t>SAT_stims-1650477849747671.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778469596746" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778496806698" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778496816685" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778497456691" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778498086722" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1650996137553771" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961396017907" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961396017907" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961396497655" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961397137408" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778469216685.csv</t>
+          <t>go_stims-1650996137513734.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778469426727.csv</t>
+          <t>GNG_stims-16509961375377345.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778469446692.csv</t>
+          <t>go_stims-16509961375377345.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778469586725.csv</t>
+          <t>GNG_stims-1650996137553771.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650477847427706.csv</t>
+          <t>ZB-match_5-16509961378497498.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-1650477848038706.csv</t>
+          <t>TB-16509961391857285.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778471686707.csv</t>
+          <t>ZB-match_5-16509961382177641.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778477717052.csv</t>
+          <t>TB-16509961393697736.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650477849663705.csv</t>
+          <t>OB-1650996138897732.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-16504778471396904.csv</t>
+          <t>TB-16509961395777712.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778493837047.csv</t>
+          <t>ZB-match_0-16509961384977622.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778496246696.csv</t>
+          <t>OB-16509961391457675.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_0-1650477847344673.csv</t>
+          <t>OB-16509961385697694.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1650477849712706.csv</t>
+          <t>MM_stims-16509961396177287.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650477849688667.csv</t>
+          <t>ZM_stims-16509961396017907.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778497286701.csv</t>
+          <t>MM_stims-1650996139633766.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778497136676.csv</t>
+          <t>ZM_stims-16509961396177287.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778497447064.csv</t>
+          <t>MM_stims-16509961396497655.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778497296689.csv</t>
+          <t>ZM_stims-1650996139633766.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477849792672.csv</t>
+          <t>SAT_stims-16509961396497655.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778497777128.csv</t>
+          <t>vSAT_stims-16509961396817706.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778497607026.csv</t>
+          <t>vSAT_stims-16509961396977658.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477849747671.csv</t>
+          <t>SAT_stims-165099613966573.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1650996137553771" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961396017907" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961396017907" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961396497655" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961397137408" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-165116873726659" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651168739347002" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687393480043" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168739393755" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687394695187" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1650996137513734.csv</t>
+          <t>go_stims-16511687372242396.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961375377345.csv</t>
+          <t>GNG_stims-1651168737250403.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961375377345.csv</t>
+          <t>go_stims-16511687372523959.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650996137553771.csv</t>
+          <t>GNG_stims-16511687372655983.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961378497498.csv</t>
+          <t>OB-16511687383405037.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16509961391857285.csv</t>
+          <t>ZB-match_1-1651168737695932.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961382177641.csv</t>
+          <t>TB-16511687393317022.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961393697736.csv</t>
+          <t>OB-16511687383872411.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-1650996138897732.csv</t>
+          <t>ZB-match_8-16511687373251407.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961395777712.csv</t>
+          <t>TB-16511687391160917.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16509961384977622.csv</t>
+          <t>ZB-match_0-16511687374728534.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961391457675.csv</t>
+          <t>TB-1651168738474611.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16509961385697694.csv</t>
+          <t>OB-1651168738030882.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961396177287.csv</t>
+          <t>MM_stims-16511687393621504.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961396017907.csv</t>
+          <t>ZM_stims-16511687393490033.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996139633766.csv</t>
+          <t>MM_stims-16511687393769486.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961396177287.csv</t>
+          <t>ZM_stims-16511687393621504.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961396497655.csv</t>
+          <t>MM_stims-16511687393927898.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996139633766.csv</t>
+          <t>ZM_stims-16511687393769486.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961396497655.csv</t>
+          <t>vSAT_stims-16511687394534616.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961396817706.csv</t>
+          <t>vSAT_stims-16511687394384012.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961396977658.csv</t>
+          <t>SAT_stims-16511687393978286.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-165099613966573.csv</t>
+          <t>SAT_stims-16511687394236147.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-165116873726659" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651168739347002" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687393480043" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168739393755" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687394695187" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555641582" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555667555287" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555667622964" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555668194845" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555669073684" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16511687372242396.csv</t>
+          <t>go_stims-1651255564118198.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1651168737250403.csv</t>
+          <t>GNG_stims-16512555641412036.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687372523959.csv</t>
+          <t>go_stims-1651255564142201.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687372655983.csv</t>
+          <t>GNG_stims-16512555641571991.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16511687383405037.csv</t>
+          <t>ZB-match_9-16512555642502027.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651168737695932.csv</t>
+          <t>TB-16512555661571987.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16511687393317022.csv</t>
+          <t>TB-1651255565712199.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511687383872411.csv</t>
+          <t>ZB-match_4-1651255564202199.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_8-16511687373251407.csv</t>
+          <t>OB-16512555653111975.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16511687391160917.csv</t>
+          <t>ZB-match_0-1651255564450198.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16511687374728534.csv</t>
+          <t>OB-1651255565199199.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-1651168738474611.csv</t>
+          <t>TB-16512555667422378.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-1651168738030882.csv</t>
+          <t>OB-16512555652262003.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687393621504.csv</t>
+          <t>MM_stims-16512555667877374.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687393490033.csv</t>
+          <t>ZM_stims-1651255566763886.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16511687393769486.csv</t>
+          <t>MM_stims-16512555668032181.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687393621504.csv</t>
+          <t>ZM_stims-1651255566788739.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16511687393927898.csv</t>
+          <t>MM_stims-16512555668184156.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687393769486.csv</t>
+          <t>ZM_stims-1651255566804217.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687394534616.csv</t>
+          <t>SAT_stims-1651255566849704.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687394384012.csv</t>
+          <t>SAT_stims-16512555668246477.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687393978286.csv</t>
+          <t>vSAT_stims-16512555668918722.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687394236147.csv</t>
+          <t>vSAT_stims-1651255566866415.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_29/participant_29_task_orders.xlsx
+++ b/participants/participant_29/participant_29_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555641582" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555667555287" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555667622964" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555668194845" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555669073684" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515889981628168" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TOL_TO-1651588998209692" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NB_TO-1651588999266219" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-1651588999266219" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889993012643" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651255564118198.csv</t>
+          <t>SAT_stims-165158899810035.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555641412036.csv</t>
+          <t>vSAT_stims-16515889981471925.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255564142201.csv</t>
+          <t>SAT_stims-16515889981159394.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555641571991.csv</t>
+          <t>vSAT_stims-16515889981315637.csv</t>
         </is>
       </c>
     </row>
@@ -490,6 +490,92 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889981784422.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889981628168.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889981940675.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889981784422.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-1651588998209692.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889981940675.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -516,7 +602,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555642502027.csv</t>
+          <t>TB-16515889992506258.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +612,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16512555661571987.csv</t>
+          <t>OB-16515889989941664.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +622,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1651255565712199.csv</t>
+          <t>TB-16515889990879178.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +632,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651255564202199.csv</t>
+          <t>OB-16515889985701027.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16512555653111975.csv</t>
+          <t>ZB-match_9-16515889984585156.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_0-1651255564450198.csv</t>
+          <t>TB-16515889990254169.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +662,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651255565199199.csv</t>
+          <t>OB-16515889989160776.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +672,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16512555667422378.csv</t>
+          <t>ZB-match_9-16515889984428573.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +682,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16512555652262003.csv</t>
+          <t>ZB-match_8-16515889983781765.csv</t>
         </is>
       </c>
     </row>
@@ -605,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555667877374.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255566763886.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555668032181.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255566788739.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555668184156.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-1651255566804217.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255566849704.csv</t>
+          <t>go_stims-1651588999266219.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555668246477.csv</t>
+          <t>GNG_stims-16515889992818458.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555668918722.csv</t>
+          <t>go_stims-16515889992834368.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255566866415.csv</t>
+          <t>GNG_stims-16515889993012643.csv</t>
         </is>
       </c>
     </row>
